--- a/Device42_project/csv_devices.xlsx
+++ b/Device42_project/csv_devices.xlsx
@@ -24,45 +24,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Network_Device</t>
-  </si>
-  <si>
-    <t>Blade_Chassis</t>
-  </si>
-  <si>
-    <t>Virtual_Host</t>
-  </si>
-  <si>
-    <t>In_Service</t>
-  </si>
-  <si>
-    <t>Service_Level</t>
-  </si>
-  <si>
-    <t>Serial_no</t>
-  </si>
-  <si>
-    <t>Asset_no</t>
-  </si>
-  <si>
-    <t>UUID</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Blade_slot_no</t>
-  </si>
-  <si>
-    <t>Device_Host_Chassis</t>
-  </si>
-  <si>
     <t>TXARL1-MPC1</t>
   </si>
   <si>
@@ -199,6 +160,45 @@
   </si>
   <si>
     <t>34000803B9B30400000002C0</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>network_device</t>
+  </si>
+  <si>
+    <t>blade_chassis</t>
+  </si>
+  <si>
+    <t>virtual_host</t>
+  </si>
+  <si>
+    <t>in_service</t>
+  </si>
+  <si>
+    <t>service_level</t>
+  </si>
+  <si>
+    <t>serial_no</t>
+  </si>
+  <si>
+    <t>asset_no</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>blade_slot_no</t>
+  </si>
+  <si>
+    <t>device_host_chassis</t>
   </si>
 </sst>
 </file>
@@ -570,56 +570,59 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -627,10 +630,10 @@
         <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -645,19 +648,19 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -665,10 +668,10 @@
         <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -683,19 +686,19 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -703,10 +706,10 @@
         <v>290</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -721,16 +724,16 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -738,10 +741,10 @@
         <v>291</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -756,19 +759,19 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -776,10 +779,10 @@
         <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -794,19 +797,19 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -814,10 +817,10 @@
         <v>293</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -832,19 +835,19 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -852,10 +855,10 @@
         <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -870,19 +873,19 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -890,10 +893,10 @@
         <v>295</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -908,19 +911,19 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -928,10 +931,10 @@
         <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -946,19 +949,19 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -966,10 +969,10 @@
         <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -984,19 +987,19 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1004,37 +1007,37 @@
         <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>49</v>
-      </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O12" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1042,10 +1045,10 @@
         <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1060,19 +1063,19 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1080,10 +1083,10 @@
         <v>300</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1098,19 +1101,19 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1118,10 +1121,10 @@
         <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1136,19 +1139,19 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Device42_project/csv_devices.xlsx
+++ b/Device42_project/csv_devices.xlsx
@@ -569,13 +569,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">

--- a/Device42_project/csv_devices.xlsx
+++ b/Device42_project/csv_devices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2940" yWindow="4080" windowWidth="25600" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -578,6 +578,7 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="27.5" customWidth="1"/>
     <col min="13" max="13" width="15.83203125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>

--- a/Device42_project/csv_devices.xlsx
+++ b/Device42_project/csv_devices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="4080" windowWidth="25600" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -33,135 +33,54 @@
     <t>Production</t>
   </si>
   <si>
-    <t>NS4150191005</t>
-  </si>
-  <si>
-    <t>34000803B9B304000000036E</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
     <t>TXARL1-MSA1</t>
   </si>
   <si>
-    <t>SN4150198005</t>
-  </si>
-  <si>
-    <t>34000803B9B3NH4000000036E</t>
-  </si>
-  <si>
     <t>TXARL1-MVD2</t>
   </si>
   <si>
-    <t>FGE18520QV0</t>
-  </si>
-  <si>
     <t>TXARL1-pases001</t>
   </si>
   <si>
-    <t>MXQ50905WQ</t>
-  </si>
-  <si>
-    <t>34000803B9B30400000002ED</t>
-  </si>
-  <si>
     <t>TXARL1-pba001</t>
   </si>
   <si>
-    <t>MXQ50905VZ</t>
-  </si>
-  <si>
-    <t>34000803B9B30400000002EA</t>
-  </si>
-  <si>
     <t>TXARL1-pchapxy01</t>
   </si>
   <si>
     <t>virtual</t>
   </si>
   <si>
-    <t>MXQ50905XR</t>
-  </si>
-  <si>
-    <t>34000803B9B3040000000256</t>
-  </si>
-  <si>
     <t>TXARL1-pcmon001</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>MXQ50905XL</t>
-  </si>
-  <si>
-    <t>34000803B9B30400000002EE</t>
-  </si>
-  <si>
     <t>TXARL1-pcmon002</t>
   </si>
   <si>
-    <t>MXQ50905XD</t>
-  </si>
-  <si>
-    <t>34000803B9B3040000000257</t>
-  </si>
-  <si>
     <t>TXARL1-pcmon003</t>
   </si>
   <si>
-    <t>MXQ50802G3</t>
-  </si>
-  <si>
-    <t>34000803B9B3040000000258</t>
-  </si>
-  <si>
     <t>TXARL1-pcob001</t>
   </si>
   <si>
-    <t>MXQ50905VP</t>
-  </si>
-  <si>
-    <t>34000803B9B30400000002E9</t>
-  </si>
-  <si>
     <t>TXARL1-pcosd019</t>
   </si>
   <si>
-    <t>MXQ51100D5</t>
-  </si>
-  <si>
-    <t>34000803B9B30400000003b5</t>
-  </si>
-  <si>
     <t>TXARL1-pcosd020</t>
   </si>
   <si>
-    <t>MXQ51100D7</t>
-  </si>
-  <si>
-    <t>34000803B9B30400000002C1</t>
-  </si>
-  <si>
     <t>TXARL1-pcosd021</t>
   </si>
   <si>
-    <t>MXQ51100D6</t>
-  </si>
-  <si>
-    <t>34000803B9B30400000002C3</t>
-  </si>
-  <si>
     <t>TXARL1-pcosd022</t>
   </si>
   <si>
-    <t>MXQ5100469</t>
-  </si>
-  <si>
-    <t>34000803B9B30400000002C0</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -183,22 +102,7 @@
     <t>service_level</t>
   </si>
   <si>
-    <t>serial_no</t>
-  </si>
-  <si>
-    <t>asset_no</t>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
     <t>customer</t>
-  </si>
-  <si>
-    <t>blade_slot_no</t>
-  </si>
-  <si>
-    <t>device_host_chassis</t>
   </si>
 </sst>
 </file>
@@ -567,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -578,59 +482,38 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="27.83203125" customWidth="1"/>
-    <col min="10" max="10" width="27.5" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>288</v>
       </c>
@@ -658,22 +541,13 @@
       <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -694,24 +568,15 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>290</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -732,21 +597,15 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>291</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -767,24 +626,15 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -805,27 +655,18 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>293</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -843,27 +684,18 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -881,27 +713,18 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>295</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -919,27 +742,18 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -957,27 +771,18 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -995,27 +800,18 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1033,27 +829,18 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1071,27 +858,18 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>300</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1109,27 +887,18 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1147,16 +916,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
